--- a/Data/Raw Electoral Data/Tamaulipas - 1995, 1998, 2001, 2004, 2007, 2010, 2013,2016,2018,2021,2024/24/Matamoros_Tabla_de_Computo_Municipal.xlsx
+++ b/Data/Raw Electoral Data/Tamaulipas - 1995, 1998, 2001, 2004, 2007, 2010, 2013,2016,2018,2021,2024/24/Matamoros_Tabla_de_Computo_Municipal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylanderos.IETAM\Onedrive - Ylanderos\OneDrive - IETAM\tablas de resultados para transparencia\Trabajados\Ayuntamientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/Raw Electoral Data/Tamaulipas - 1995, 1998, 2001, 2004, 2007, 2010, 2013,2016,2018,2021,2024/24/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4972F58-82A5-425A-92DE-90F9F35214AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A34B02-E6DD-9A44-9A39-F620EEC38980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="21840" windowHeight="13140" xr2:uid="{FB1302B2-40A9-4F1E-BFEC-504912C309A2}"/>
+    <workbookView xWindow="4480" yWindow="500" windowWidth="21840" windowHeight="13140" xr2:uid="{FB1302B2-40A9-4F1E-BFEC-504912C309A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2323,14 +2323,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3268,9 +3268,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3308,7 +3308,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3414,7 +3414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3556,7 +3556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3573,76 +3573,76 @@
       <selection activeCell="C738" sqref="C738"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="15" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="5" spans="1:15" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+    </row>
+    <row r="5" spans="1:15" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>82</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>83</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>84</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>85</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>86</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>87</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>88</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>89</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>90</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>93</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>94</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>95</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>96</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>97</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>98</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>99</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>100</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>101</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>102</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>103</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>104</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>105</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>106</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>107</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>108</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>109</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>111</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>112</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>113</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>114</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>115</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>116</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>117</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>118</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>119</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>122</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>123</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>124</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>125</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>137</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>138</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>139</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>140</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>141</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>142</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>143</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>144</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>145</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>146</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>147</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>148</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>149</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>150</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>151</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>152</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>153</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>154</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>155</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>156</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>157</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>158</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>159</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>160</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>161</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>162</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>163</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>185</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>186</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>188</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>189</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>191</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>192</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>193</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>194</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>195</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>196</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>197</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>199</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>200</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>202</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>203</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>204</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>205</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>206</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>207</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>208</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>209</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>210</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>211</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>212</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>213</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>214</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>216</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>218</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>219</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>220</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>222</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>223</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>224</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>225</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>226</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>227</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>228</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>229</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>230</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>231</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>232</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>233</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>234</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>235</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>236</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>237</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>238</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>239</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>240</v>
       </c>
@@ -14571,7 +14571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>241</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>242</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>244</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>245</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>246</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>247</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>248</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>249</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>250</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>251</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>252</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>253</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>254</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>255</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>256</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>257</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>259</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>260</v>
       </c>
@@ -15511,7 +15511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>261</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>262</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>263</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>264</v>
       </c>
@@ -15699,7 +15699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>265</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>266</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>267</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>268</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>269</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>270</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>271</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>272</v>
       </c>
@@ -16075,7 +16075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>273</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>274</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>275</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>276</v>
       </c>
@@ -16263,7 +16263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>277</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>278</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>279</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>280</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>281</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>282</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>283</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>284</v>
       </c>
@@ -16639,7 +16639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>285</v>
       </c>
@@ -16686,7 +16686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>286</v>
       </c>
@@ -16733,7 +16733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>287</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>288</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>289</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>290</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>291</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>292</v>
       </c>
@@ -17015,7 +17015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>293</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>294</v>
       </c>
@@ -17109,7 +17109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>295</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>296</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>297</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>298</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>299</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>300</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>301</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>302</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>303</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>304</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>305</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>306</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>307</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>308</v>
       </c>
@@ -17767,7 +17767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>309</v>
       </c>
@@ -17814,7 +17814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>310</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>311</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>312</v>
       </c>
@@ -17955,7 +17955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>313</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>314</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>315</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>316</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>317</v>
       </c>
@@ -18190,7 +18190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>318</v>
       </c>
@@ -18237,7 +18237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>319</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>320</v>
       </c>
@@ -18331,7 +18331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>321</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>322</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>323</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>324</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>325</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>326</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>327</v>
       </c>
@@ -18660,7 +18660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>328</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>329</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>330</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>331</v>
       </c>
@@ -18848,7 +18848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>332</v>
       </c>
@@ -18895,7 +18895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>333</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>334</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>335</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>336</v>
       </c>
@@ -19083,7 +19083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>337</v>
       </c>
@@ -19130,7 +19130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>338</v>
       </c>
@@ -19177,7 +19177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>339</v>
       </c>
@@ -19224,7 +19224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>340</v>
       </c>
@@ -19271,7 +19271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>341</v>
       </c>
@@ -19318,7 +19318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>342</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>343</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>344</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>345</v>
       </c>
@@ -19506,7 +19506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>346</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>347</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>348</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>349</v>
       </c>
@@ -19694,7 +19694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>350</v>
       </c>
@@ -19741,7 +19741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>351</v>
       </c>
@@ -19788,7 +19788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>352</v>
       </c>
@@ -19835,7 +19835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>353</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>354</v>
       </c>
@@ -19929,7 +19929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>355</v>
       </c>
@@ -19976,7 +19976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>356</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>357</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>358</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>359</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>360</v>
       </c>
@@ -20211,7 +20211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>361</v>
       </c>
@@ -20258,7 +20258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>362</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>363</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>364</v>
       </c>
@@ -20399,7 +20399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>365</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>366</v>
       </c>
@@ -20493,7 +20493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>367</v>
       </c>
@@ -20540,7 +20540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>368</v>
       </c>
@@ -20587,7 +20587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>369</v>
       </c>
@@ -20634,7 +20634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>370</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>371</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>372</v>
       </c>
@@ -20775,7 +20775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>373</v>
       </c>
@@ -20822,7 +20822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>374</v>
       </c>
@@ -20869,7 +20869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>375</v>
       </c>
@@ -20916,7 +20916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>376</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>377</v>
       </c>
@@ -21010,7 +21010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>378</v>
       </c>
@@ -21057,7 +21057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>379</v>
       </c>
@@ -21104,7 +21104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>380</v>
       </c>
@@ -21151,7 +21151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>381</v>
       </c>
@@ -21198,7 +21198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>382</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>383</v>
       </c>
@@ -21292,7 +21292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>384</v>
       </c>
@@ -21339,7 +21339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>385</v>
       </c>
@@ -21386,7 +21386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>386</v>
       </c>
@@ -21433,7 +21433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>387</v>
       </c>
@@ -21480,7 +21480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>388</v>
       </c>
@@ -21527,7 +21527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>389</v>
       </c>
@@ -21574,7 +21574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>390</v>
       </c>
@@ -21621,7 +21621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>391</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>392</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>393</v>
       </c>
@@ -21762,7 +21762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>394</v>
       </c>
@@ -21809,7 +21809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>395</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>396</v>
       </c>
@@ -21903,7 +21903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>397</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>398</v>
       </c>
@@ -21997,7 +21997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>399</v>
       </c>
@@ -22044,7 +22044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>400</v>
       </c>
@@ -22091,7 +22091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>401</v>
       </c>
@@ -22138,7 +22138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>402</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>403</v>
       </c>
@@ -22232,7 +22232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>404</v>
       </c>
@@ -22279,7 +22279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>405</v>
       </c>
@@ -22326,7 +22326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>406</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>407</v>
       </c>
@@ -22420,7 +22420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>408</v>
       </c>
@@ -22467,7 +22467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>409</v>
       </c>
@@ -22514,7 +22514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>410</v>
       </c>
@@ -22561,7 +22561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>411</v>
       </c>
@@ -22608,7 +22608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>412</v>
       </c>
@@ -22655,7 +22655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>413</v>
       </c>
@@ -22702,7 +22702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>414</v>
       </c>
@@ -22749,7 +22749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>415</v>
       </c>
@@ -22796,7 +22796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>416</v>
       </c>
@@ -22843,7 +22843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>417</v>
       </c>
@@ -22890,7 +22890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>418</v>
       </c>
@@ -22937,7 +22937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>419</v>
       </c>
@@ -22984,7 +22984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>420</v>
       </c>
@@ -23031,7 +23031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>421</v>
       </c>
@@ -23078,7 +23078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>422</v>
       </c>
@@ -23125,7 +23125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>423</v>
       </c>
@@ -23172,7 +23172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>424</v>
       </c>
@@ -23219,7 +23219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>425</v>
       </c>
@@ -23266,7 +23266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>426</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>427</v>
       </c>
@@ -23360,7 +23360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>428</v>
       </c>
@@ -23407,7 +23407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>429</v>
       </c>
@@ -23454,7 +23454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>430</v>
       </c>
@@ -23501,7 +23501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>431</v>
       </c>
@@ -23548,7 +23548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>432</v>
       </c>
@@ -23595,7 +23595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>433</v>
       </c>
@@ -23642,7 +23642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>434</v>
       </c>
@@ -23689,7 +23689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>435</v>
       </c>
@@ -23736,7 +23736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>436</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>437</v>
       </c>
@@ -23830,7 +23830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>438</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>439</v>
       </c>
@@ -23924,7 +23924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>440</v>
       </c>
@@ -23971,7 +23971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>441</v>
       </c>
@@ -24018,7 +24018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>442</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>443</v>
       </c>
@@ -24112,7 +24112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>444</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>445</v>
       </c>
@@ -24206,7 +24206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>446</v>
       </c>
@@ -24253,7 +24253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>447</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>448</v>
       </c>
@@ -24347,7 +24347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>449</v>
       </c>
@@ -24394,7 +24394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>450</v>
       </c>
@@ -24441,7 +24441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>451</v>
       </c>
@@ -24488,7 +24488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>452</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>453</v>
       </c>
@@ -24582,7 +24582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>454</v>
       </c>
@@ -24629,7 +24629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>455</v>
       </c>
@@ -24676,7 +24676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>456</v>
       </c>
@@ -24723,7 +24723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>457</v>
       </c>
@@ -24770,7 +24770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>458</v>
       </c>
@@ -24817,7 +24817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>459</v>
       </c>
@@ -24864,7 +24864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>460</v>
       </c>
@@ -24911,7 +24911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>461</v>
       </c>
@@ -24958,7 +24958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>462</v>
       </c>
@@ -25005,7 +25005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>463</v>
       </c>
@@ -25052,7 +25052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>464</v>
       </c>
@@ -25099,7 +25099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>465</v>
       </c>
@@ -25146,7 +25146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>466</v>
       </c>
@@ -25193,7 +25193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>467</v>
       </c>
@@ -25240,7 +25240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>468</v>
       </c>
@@ -25287,7 +25287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>469</v>
       </c>
@@ -25334,7 +25334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>470</v>
       </c>
@@ -25381,7 +25381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>471</v>
       </c>
@@ -25428,7 +25428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>472</v>
       </c>
@@ -25475,7 +25475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>473</v>
       </c>
@@ -25522,7 +25522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>474</v>
       </c>
@@ -25569,7 +25569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>475</v>
       </c>
@@ -25616,7 +25616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>476</v>
       </c>
@@ -25663,7 +25663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>477</v>
       </c>
@@ -25710,7 +25710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>478</v>
       </c>
@@ -25757,7 +25757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>479</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>480</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>481</v>
       </c>
@@ -25898,7 +25898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>482</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>483</v>
       </c>
@@ -25992,7 +25992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>484</v>
       </c>
@@ -26039,7 +26039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>485</v>
       </c>
@@ -26086,7 +26086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>486</v>
       </c>
@@ -26133,7 +26133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>487</v>
       </c>
@@ -26180,7 +26180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>488</v>
       </c>
@@ -26227,7 +26227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>489</v>
       </c>
@@ -26274,7 +26274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>490</v>
       </c>
@@ -26321,7 +26321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>491</v>
       </c>
@@ -26368,7 +26368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>492</v>
       </c>
@@ -26415,7 +26415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>493</v>
       </c>
@@ -26462,7 +26462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>494</v>
       </c>
@@ -26509,7 +26509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>495</v>
       </c>
@@ -26556,7 +26556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>496</v>
       </c>
@@ -26603,7 +26603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>497</v>
       </c>
@@ -26650,7 +26650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>498</v>
       </c>
@@ -26697,7 +26697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>499</v>
       </c>
@@ -26744,7 +26744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>500</v>
       </c>
@@ -26791,7 +26791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>501</v>
       </c>
@@ -26838,7 +26838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>502</v>
       </c>
@@ -26885,7 +26885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>503</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>504</v>
       </c>
@@ -26979,7 +26979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>505</v>
       </c>
@@ -27026,7 +27026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>506</v>
       </c>
@@ -27073,7 +27073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>507</v>
       </c>
@@ -27120,7 +27120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>508</v>
       </c>
@@ -27167,7 +27167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>509</v>
       </c>
@@ -27214,7 +27214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>510</v>
       </c>
@@ -27261,7 +27261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>511</v>
       </c>
@@ -27308,7 +27308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>512</v>
       </c>
@@ -27355,7 +27355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>513</v>
       </c>
@@ -27402,7 +27402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>514</v>
       </c>
@@ -27449,7 +27449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>515</v>
       </c>
@@ -27496,7 +27496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>516</v>
       </c>
@@ -27543,7 +27543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>517</v>
       </c>
@@ -27590,7 +27590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>518</v>
       </c>
@@ -27637,7 +27637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>519</v>
       </c>
@@ -27684,7 +27684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>520</v>
       </c>
@@ -27731,7 +27731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>521</v>
       </c>
@@ -27778,7 +27778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>522</v>
       </c>
@@ -27825,7 +27825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>523</v>
       </c>
@@ -27872,7 +27872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>524</v>
       </c>
@@ -27919,7 +27919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>525</v>
       </c>
@@ -27966,7 +27966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>526</v>
       </c>
@@ -28013,7 +28013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>527</v>
       </c>
@@ -28060,7 +28060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>528</v>
       </c>
@@ -28107,7 +28107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>529</v>
       </c>
@@ -28154,7 +28154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>530</v>
       </c>
@@ -28201,7 +28201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>531</v>
       </c>
@@ -28248,7 +28248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>532</v>
       </c>
@@ -28295,7 +28295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>533</v>
       </c>
@@ -28342,7 +28342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>534</v>
       </c>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>535</v>
       </c>
@@ -28436,7 +28436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>536</v>
       </c>
@@ -28483,7 +28483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>537</v>
       </c>
@@ -28530,7 +28530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>538</v>
       </c>
@@ -28577,7 +28577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>539</v>
       </c>
@@ -28624,7 +28624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>540</v>
       </c>
@@ -28671,7 +28671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>541</v>
       </c>
@@ -28718,7 +28718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>542</v>
       </c>
@@ -28765,7 +28765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>543</v>
       </c>
@@ -28812,7 +28812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>544</v>
       </c>
@@ -28859,7 +28859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>545</v>
       </c>
@@ -28906,7 +28906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>546</v>
       </c>
@@ -28953,7 +28953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>547</v>
       </c>
@@ -29000,7 +29000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>548</v>
       </c>
@@ -29047,7 +29047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>549</v>
       </c>
@@ -29094,7 +29094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>550</v>
       </c>
@@ -29141,7 +29141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>551</v>
       </c>
@@ -29188,7 +29188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>552</v>
       </c>
@@ -29235,7 +29235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>553</v>
       </c>
@@ -29282,7 +29282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>554</v>
       </c>
@@ -29329,7 +29329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>555</v>
       </c>
@@ -29376,7 +29376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>556</v>
       </c>
@@ -29423,7 +29423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>557</v>
       </c>
@@ -29470,7 +29470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>558</v>
       </c>
@@ -29517,7 +29517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>559</v>
       </c>
@@ -29564,7 +29564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>560</v>
       </c>
@@ -29611,7 +29611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>561</v>
       </c>
@@ -29658,7 +29658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>562</v>
       </c>
@@ -29705,7 +29705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>563</v>
       </c>
@@ -29752,7 +29752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>564</v>
       </c>
@@ -29799,7 +29799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>565</v>
       </c>
@@ -29846,7 +29846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>566</v>
       </c>
@@ -29893,7 +29893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>567</v>
       </c>
@@ -29940,7 +29940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>568</v>
       </c>
@@ -29987,7 +29987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>569</v>
       </c>
@@ -30034,7 +30034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>570</v>
       </c>
@@ -30081,7 +30081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>571</v>
       </c>
@@ -30128,7 +30128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>572</v>
       </c>
@@ -30175,7 +30175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>573</v>
       </c>
@@ -30222,7 +30222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>574</v>
       </c>
@@ -30269,7 +30269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>575</v>
       </c>
@@ -30316,7 +30316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>576</v>
       </c>
@@ -30363,7 +30363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>577</v>
       </c>
@@ -30410,7 +30410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>578</v>
       </c>
@@ -30457,7 +30457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>579</v>
       </c>
@@ -30504,7 +30504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>580</v>
       </c>
@@ -30551,7 +30551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>581</v>
       </c>
@@ -30598,7 +30598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>582</v>
       </c>
@@ -30645,7 +30645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>583</v>
       </c>
@@ -30692,7 +30692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>584</v>
       </c>
@@ -30739,7 +30739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>585</v>
       </c>
@@ -30786,7 +30786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>586</v>
       </c>
@@ -30833,7 +30833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>587</v>
       </c>
@@ -30880,7 +30880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>588</v>
       </c>
@@ -30927,7 +30927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>589</v>
       </c>
@@ -30974,7 +30974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>590</v>
       </c>
@@ -31021,7 +31021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>591</v>
       </c>
@@ -31068,7 +31068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>592</v>
       </c>
@@ -31115,7 +31115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>593</v>
       </c>
@@ -31162,7 +31162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>594</v>
       </c>
@@ -31209,7 +31209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>595</v>
       </c>
@@ -31256,7 +31256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>596</v>
       </c>
@@ -31303,7 +31303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>597</v>
       </c>
@@ -31350,7 +31350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>598</v>
       </c>
@@ -31397,7 +31397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>599</v>
       </c>
@@ -31444,7 +31444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>600</v>
       </c>
@@ -31491,7 +31491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>601</v>
       </c>
@@ -31538,7 +31538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
         <v>602</v>
       </c>
@@ -31585,7 +31585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>603</v>
       </c>
@@ -31632,7 +31632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>604</v>
       </c>
@@ -31679,7 +31679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>605</v>
       </c>
@@ -31726,7 +31726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>606</v>
       </c>
@@ -31773,7 +31773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>607</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
         <v>608</v>
       </c>
@@ -31867,7 +31867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
         <v>609</v>
       </c>
@@ -31914,7 +31914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
         <v>610</v>
       </c>
@@ -31961,7 +31961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
         <v>611</v>
       </c>
@@ -32008,7 +32008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
         <v>612</v>
       </c>
@@ -32055,7 +32055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
         <v>613</v>
       </c>
@@ -32102,7 +32102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
         <v>614</v>
       </c>
@@ -32149,7 +32149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
         <v>615</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
         <v>616</v>
       </c>
@@ -32243,7 +32243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
         <v>617</v>
       </c>
@@ -32290,7 +32290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
         <v>618</v>
       </c>
@@ -32337,7 +32337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>619</v>
       </c>
@@ -32384,7 +32384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>620</v>
       </c>
@@ -32431,7 +32431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
         <v>621</v>
       </c>
@@ -32478,7 +32478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
         <v>622</v>
       </c>
@@ -32525,7 +32525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
         <v>623</v>
       </c>
@@ -32572,7 +32572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
         <v>624</v>
       </c>
@@ -32619,7 +32619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>625</v>
       </c>
@@ -32666,7 +32666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>626</v>
       </c>
@@ -32713,7 +32713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
         <v>627</v>
       </c>
@@ -32760,7 +32760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
         <v>628</v>
       </c>
@@ -32807,7 +32807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
         <v>629</v>
       </c>
@@ -32854,7 +32854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
         <v>630</v>
       </c>
@@ -32901,7 +32901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>631</v>
       </c>
@@ -32948,7 +32948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
         <v>632</v>
       </c>
@@ -32995,7 +32995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
         <v>633</v>
       </c>
@@ -33042,7 +33042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
         <v>634</v>
       </c>
@@ -33089,7 +33089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
         <v>635</v>
       </c>
@@ -33136,7 +33136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="633" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>636</v>
       </c>
@@ -33183,7 +33183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="634" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>637</v>
       </c>
@@ -33230,7 +33230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="635" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
         <v>638</v>
       </c>
@@ -33277,7 +33277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="636" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
         <v>639</v>
       </c>
@@ -33324,7 +33324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="637" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
         <v>640</v>
       </c>
@@ -33371,7 +33371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
         <v>641</v>
       </c>
@@ -33418,7 +33418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
         <v>642</v>
       </c>
@@ -33465,7 +33465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="640" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
         <v>643</v>
       </c>
@@ -33512,7 +33512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="641" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
         <v>644</v>
       </c>
@@ -33559,7 +33559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
         <v>645</v>
       </c>
@@ -33606,7 +33606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
         <v>646</v>
       </c>
@@ -33653,7 +33653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
         <v>647</v>
       </c>
@@ -33700,7 +33700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="645" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
         <v>648</v>
       </c>
@@ -33747,7 +33747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="646" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
         <v>649</v>
       </c>
@@ -33794,7 +33794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="647" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
         <v>650</v>
       </c>
@@ -33841,7 +33841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="648" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
         <v>651</v>
       </c>
@@ -33888,7 +33888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="649" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
         <v>652</v>
       </c>
@@ -33935,7 +33935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
         <v>653</v>
       </c>
@@ -33982,7 +33982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
         <v>654</v>
       </c>
@@ -34029,7 +34029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
         <v>655</v>
       </c>
@@ -34076,7 +34076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
         <v>656</v>
       </c>
@@ -34123,7 +34123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
         <v>657</v>
       </c>
@@ -34170,7 +34170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="655" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
         <v>658</v>
       </c>
@@ -34217,7 +34217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="656" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
         <v>659</v>
       </c>
@@ -34264,7 +34264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="657" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
         <v>660</v>
       </c>
@@ -34311,7 +34311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="658" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>661</v>
       </c>
@@ -34358,7 +34358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>662</v>
       </c>
@@ -34405,7 +34405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
         <v>663</v>
       </c>
@@ -34452,7 +34452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
         <v>664</v>
       </c>
@@ -34499,7 +34499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
         <v>665</v>
       </c>
@@ -34546,7 +34546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="663" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>666</v>
       </c>
@@ -34593,7 +34593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="664" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
         <v>667</v>
       </c>
@@ -34640,7 +34640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="665" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
         <v>668</v>
       </c>
@@ -34687,7 +34687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="666" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
         <v>669</v>
       </c>
@@ -34734,7 +34734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
         <v>670</v>
       </c>
@@ -34781,7 +34781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="668" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
         <v>671</v>
       </c>
@@ -34828,7 +34828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="669" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
         <v>672</v>
       </c>
@@ -34875,7 +34875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="670" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
         <v>673</v>
       </c>
@@ -34922,7 +34922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="671" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
         <v>674</v>
       </c>
@@ -34969,7 +34969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>675</v>
       </c>
@@ -35016,7 +35016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="673" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>676</v>
       </c>
@@ -35063,7 +35063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="674" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
         <v>677</v>
       </c>
@@ -35110,7 +35110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
         <v>678</v>
       </c>
@@ -35157,7 +35157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="676" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
         <v>679</v>
       </c>
@@ -35204,7 +35204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
         <v>680</v>
       </c>
@@ -35251,7 +35251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="678" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
         <v>681</v>
       </c>
@@ -35298,7 +35298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
         <v>682</v>
       </c>
@@ -35345,7 +35345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
         <v>683</v>
       </c>
@@ -35392,7 +35392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
         <v>684</v>
       </c>
@@ -35439,7 +35439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="682" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
         <v>685</v>
       </c>
@@ -35486,7 +35486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="683" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
         <v>686</v>
       </c>
@@ -35533,7 +35533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
         <v>687</v>
       </c>
@@ -35580,7 +35580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
         <v>688</v>
       </c>
@@ -35627,7 +35627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
         <v>689</v>
       </c>
@@ -35674,7 +35674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="687" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
         <v>690</v>
       </c>
@@ -35721,7 +35721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="688" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
         <v>691</v>
       </c>
@@ -35768,7 +35768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
         <v>692</v>
       </c>
@@ -35815,7 +35815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="690" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
         <v>693</v>
       </c>
@@ -35862,7 +35862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="691" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
         <v>694</v>
       </c>
@@ -35909,7 +35909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
         <v>695</v>
       </c>
@@ -35956,7 +35956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
         <v>696</v>
       </c>
@@ -36003,7 +36003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="694" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
         <v>697</v>
       </c>
@@ -36050,7 +36050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="695" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
         <v>698</v>
       </c>
@@ -36097,7 +36097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="696" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
         <v>699</v>
       </c>
@@ -36144,7 +36144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="697" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
         <v>700</v>
       </c>
@@ -36191,7 +36191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="698" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>701</v>
       </c>
@@ -36238,7 +36238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="699" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
         <v>702</v>
       </c>
@@ -36285,7 +36285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="700" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
         <v>703</v>
       </c>
@@ -36332,7 +36332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
         <v>704</v>
       </c>
@@ -36379,7 +36379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="702" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
         <v>705</v>
       </c>
@@ -36426,7 +36426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="703" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
         <v>706</v>
       </c>
@@ -36473,7 +36473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="704" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
         <v>707</v>
       </c>
@@ -36520,7 +36520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="705" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
         <v>708</v>
       </c>
@@ -36567,7 +36567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
         <v>709</v>
       </c>
@@ -36614,7 +36614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="707" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
         <v>710</v>
       </c>
@@ -36661,7 +36661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="708" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
         <v>711</v>
       </c>
@@ -36708,7 +36708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="709" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
         <v>712</v>
       </c>
@@ -36755,7 +36755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="710" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
         <v>713</v>
       </c>
@@ -36802,7 +36802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="711" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
         <v>714</v>
       </c>
@@ -36849,7 +36849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="712" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
         <v>715</v>
       </c>
@@ -36896,7 +36896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="713" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
         <v>716</v>
       </c>
@@ -36943,7 +36943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="714" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
         <v>717</v>
       </c>
@@ -36990,7 +36990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="715" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
         <v>718</v>
       </c>
@@ -37037,7 +37037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
         <v>719</v>
       </c>
@@ -37084,7 +37084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="717" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
         <v>720</v>
       </c>
@@ -37131,7 +37131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="718" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
         <v>721</v>
       </c>
@@ -37178,7 +37178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="719" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
         <v>722</v>
       </c>
@@ -37225,7 +37225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="720" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
         <v>723</v>
       </c>
@@ -37272,7 +37272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="721" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
         <v>724</v>
       </c>
@@ -37319,7 +37319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="722" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
         <v>725</v>
       </c>
@@ -37366,7 +37366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="723" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
         <v>726</v>
       </c>
@@ -37413,16 +37413,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="724" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
     </row>
-    <row r="725" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A725" s="7" t="s">
+    <row r="725" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A725" s="5" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="728" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A728" s="8"/>
+    <row r="728" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A728" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
